--- a/VBA-IDictionaryPerformance.xlsx
+++ b/VBA-IDictionaryPerformance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Comp Database\AA MS Access VBA Core OO Libraries\Dictionary\DictionaryLibrary\IDictionary July 08 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Comp Database\AA MS Access VBA Core OO Libraries\Dictionary\DictionaryLibrary\VBA-IDictionary July 11 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E874446-8FED-4FBF-ADDE-33A4B35F7DA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2149761B-0C4B-4EE7-9A2A-DC54FF94746F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A890E220-371E-4A7F-AAAA-4F5B0B0C183B}"/>
   </bookViews>
@@ -2654,64 +2654,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>52869.9</c:v>
+                  <c:v>54911.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50528.4</c:v>
+                  <c:v>52664.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49291.9</c:v>
+                  <c:v>51120.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48436.3</c:v>
+                  <c:v>49639.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47756.2</c:v>
+                  <c:v>48592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47275.3</c:v>
+                  <c:v>47936.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46823.5</c:v>
+                  <c:v>47366.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46525.9</c:v>
+                  <c:v>46908.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46305.2</c:v>
+                  <c:v>46635.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46163.3</c:v>
+                  <c:v>46415</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45940.800000000003</c:v>
+                  <c:v>46234.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45667.5</c:v>
+                  <c:v>45921.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45469.2</c:v>
+                  <c:v>45688.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45324.7</c:v>
+                  <c:v>45572.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45178.3</c:v>
+                  <c:v>45508</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45012.2</c:v>
+                  <c:v>45289.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44858.9</c:v>
+                  <c:v>45085.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44724.3</c:v>
+                  <c:v>44912.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44596.6</c:v>
+                  <c:v>44740.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44447.3</c:v>
+                  <c:v>44580.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3020,64 +3020,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>82148.600000000006</c:v>
+                  <c:v>87241.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78750.5</c:v>
+                  <c:v>83378.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76720.100000000006</c:v>
+                  <c:v>81450.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75030</c:v>
+                  <c:v>79781.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74003.199999999997</c:v>
+                  <c:v>78510.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73389.399999999994</c:v>
+                  <c:v>77253.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72597.5</c:v>
+                  <c:v>76029.899999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72013.5</c:v>
+                  <c:v>75118.899999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71694.3</c:v>
+                  <c:v>74590.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71534.399999999994</c:v>
+                  <c:v>74096.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71155.3</c:v>
+                  <c:v>73557.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70820.399999999994</c:v>
+                  <c:v>72977.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70483.199999999997</c:v>
+                  <c:v>72591.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70241.2</c:v>
+                  <c:v>72437.899999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70010.5</c:v>
+                  <c:v>72246.100000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69710.600000000006</c:v>
+                  <c:v>71849</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69428.7</c:v>
+                  <c:v>71647</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69191.600000000006</c:v>
+                  <c:v>71320.100000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68951.8</c:v>
+                  <c:v>71014.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>68671.199999999997</c:v>
+                  <c:v>70675.600000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3312,7 +3312,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Key Str, Item Long BinaryComp'!$D$2</c15:sqref>
@@ -3353,7 +3353,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Key Str, Item Long BinaryComp'!$A$4:$A$23</c15:sqref>
@@ -3428,7 +3428,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Key Str, Item Long BinaryComp'!$F$4:$F$23</c15:sqref>
@@ -3791,6 +3791,192 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Key long, Item Object'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scripting  Early Binding</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Key long, Item Object'!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Key long, Item Object'!$C$4:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>526270.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>479249.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>467820.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>455937.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443345.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430927.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>419184.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>403565.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390795.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>376484.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>363693.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350213.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>333060.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319789.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>307498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>295001.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>282164.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270505.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>259892.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>249525</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E06D-4C08-8385-2E4161B18DBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -4172,215 +4358,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Key long, Item Object'!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Scripting  Early Binding</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Key long, Item Object'!$A$4:$A$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>60000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>70000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>80000</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>90000</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>110000</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>120000</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>130000</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>140000</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>150000</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>160000</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>170000</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>180000</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>190000</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>200000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Key long, Item Object'!$C$4:$C$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>526270.4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>479249.7</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>467820.2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>455937.6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>443345.5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>430927.9</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>419184.1</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>403565.4</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>390795.4</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>376484.2</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>363693.8</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>350213.8</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>333060.59999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>319789.3</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>307498</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>295001.8</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>282164.7</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>270505.5</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>259892.6</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>249525</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-E06D-4C08-8385-2E4161B18DBB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Key long, Item Object'!$D$2</c15:sqref>
                         </c15:formulaRef>
@@ -4421,7 +4404,7 @@
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Key long, Item Object'!$A$4:$A$23</c15:sqref>
                         </c15:formulaRef>
@@ -4496,7 +4479,7 @@
                 <c:val>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Key long, Item Object'!$F$4:$F$23</c15:sqref>
                         </c15:formulaRef>
@@ -4569,7 +4552,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-E06D-4C08-8385-2E4161B18DBB}"/>
                   </c:ext>
@@ -7514,9 +7497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA33D72-D2EE-48DC-881F-036FE9E5B20A}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8373,9 +8354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8E0466-0ABD-43CB-9785-6F1A93DA6231}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9243,9 +9222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFF4CFA-3DE4-4FAF-A489-21D141FF4231}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9365,19 +9342,19 @@
         <v>50000</v>
       </c>
       <c r="H4" s="11">
-        <v>0.94599999999999995</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="I4" s="6">
-        <v>52869.9</v>
+        <v>54911.199999999997</v>
       </c>
       <c r="J4" s="5">
         <v>50000</v>
       </c>
       <c r="K4" s="11">
-        <v>0.60899999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="L4" s="6">
-        <v>82148.600000000006</v>
+        <v>87241.2</v>
       </c>
       <c r="M4" s="5">
         <v>50000</v>
@@ -9412,19 +9389,19 @@
         <v>100000</v>
       </c>
       <c r="H5" s="4">
-        <v>1.9790000000000001</v>
+        <v>1.899</v>
       </c>
       <c r="I5" s="8">
-        <v>50528.4</v>
+        <v>52664.6</v>
       </c>
       <c r="J5" s="7">
         <v>100000</v>
       </c>
       <c r="K5" s="4">
-        <v>1.27</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="L5" s="8">
-        <v>78750.5</v>
+        <v>83378.600000000006</v>
       </c>
       <c r="M5" s="7">
         <v>100000</v>
@@ -9459,19 +9436,19 @@
         <v>150000</v>
       </c>
       <c r="H6" s="4">
-        <v>3.0430000000000001</v>
+        <v>2.9340000000000002</v>
       </c>
       <c r="I6" s="8">
-        <v>49291.9</v>
+        <v>51120.1</v>
       </c>
       <c r="J6" s="7">
         <v>150000</v>
       </c>
       <c r="K6" s="4">
-        <v>1.9550000000000001</v>
+        <v>1.8420000000000001</v>
       </c>
       <c r="L6" s="8">
-        <v>76720.100000000006</v>
+        <v>81450.3</v>
       </c>
       <c r="M6" s="7">
         <v>150000</v>
@@ -9506,19 +9483,19 @@
         <v>200000</v>
       </c>
       <c r="H7" s="4">
-        <v>4.1289999999999996</v>
+        <v>4.0289999999999999</v>
       </c>
       <c r="I7" s="8">
-        <v>48436.3</v>
+        <v>49639.9</v>
       </c>
       <c r="J7" s="7">
         <v>200000</v>
       </c>
       <c r="K7" s="4">
-        <v>2.6659999999999999</v>
+        <v>2.5070000000000001</v>
       </c>
       <c r="L7" s="8">
-        <v>75030</v>
+        <v>79781.399999999994</v>
       </c>
       <c r="M7" s="7">
         <v>200000</v>
@@ -9553,19 +9530,19 @@
         <v>250000</v>
       </c>
       <c r="H8" s="4">
-        <v>5.2350000000000003</v>
+        <v>5.1449999999999996</v>
       </c>
       <c r="I8" s="8">
-        <v>47756.2</v>
+        <v>48592</v>
       </c>
       <c r="J8" s="7">
         <v>250000</v>
       </c>
       <c r="K8" s="4">
-        <v>3.3780000000000001</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="L8" s="8">
-        <v>74003.199999999997</v>
+        <v>78510.2</v>
       </c>
       <c r="M8" s="7">
         <v>250000</v>
@@ -9600,19 +9577,19 @@
         <v>300000</v>
       </c>
       <c r="H9" s="4">
-        <v>6.3460000000000001</v>
+        <v>6.258</v>
       </c>
       <c r="I9" s="8">
-        <v>47275.3</v>
+        <v>47936.2</v>
       </c>
       <c r="J9" s="7">
         <v>300000</v>
       </c>
       <c r="K9" s="4">
-        <v>4.0880000000000001</v>
+        <v>3.883</v>
       </c>
       <c r="L9" s="8">
-        <v>73389.399999999994</v>
+        <v>77253.2</v>
       </c>
       <c r="M9" s="7">
         <v>300000</v>
@@ -9647,19 +9624,19 @@
         <v>350000</v>
       </c>
       <c r="H10" s="4">
-        <v>7.4749999999999996</v>
+        <v>7.3890000000000002</v>
       </c>
       <c r="I10" s="8">
-        <v>46823.5</v>
+        <v>47366.9</v>
       </c>
       <c r="J10" s="7">
         <v>350000</v>
       </c>
       <c r="K10" s="4">
-        <v>4.8209999999999997</v>
+        <v>4.6029999999999998</v>
       </c>
       <c r="L10" s="8">
-        <v>72597.5</v>
+        <v>76029.899999999994</v>
       </c>
       <c r="M10" s="7">
         <v>350000</v>
@@ -9694,19 +9671,19 @@
         <v>400000</v>
       </c>
       <c r="H11" s="4">
-        <v>8.5969999999999995</v>
+        <v>8.5269999999999992</v>
       </c>
       <c r="I11" s="8">
-        <v>46525.9</v>
+        <v>46908.6</v>
       </c>
       <c r="J11" s="7">
         <v>400000</v>
       </c>
       <c r="K11" s="4">
-        <v>5.5549999999999997</v>
+        <v>5.3250000000000002</v>
       </c>
       <c r="L11" s="8">
-        <v>72013.5</v>
+        <v>75118.899999999994</v>
       </c>
       <c r="M11" s="7">
         <v>400000</v>
@@ -9741,19 +9718,19 @@
         <v>450000</v>
       </c>
       <c r="H12" s="4">
-        <v>9.718</v>
+        <v>9.6489999999999991</v>
       </c>
       <c r="I12" s="8">
-        <v>46305.2</v>
+        <v>46635.7</v>
       </c>
       <c r="J12" s="7">
         <v>450000</v>
       </c>
       <c r="K12" s="4">
-        <v>6.2770000000000001</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="L12" s="8">
-        <v>71694.3</v>
+        <v>74590.7</v>
       </c>
       <c r="M12" s="7">
         <v>450000</v>
@@ -9788,19 +9765,19 @@
         <v>500000</v>
       </c>
       <c r="H13" s="4">
-        <v>10.831</v>
+        <v>10.772</v>
       </c>
       <c r="I13" s="8">
-        <v>46163.3</v>
+        <v>46415</v>
       </c>
       <c r="J13" s="7">
         <v>500000</v>
       </c>
       <c r="K13" s="4">
-        <v>6.99</v>
+        <v>6.7480000000000002</v>
       </c>
       <c r="L13" s="8">
-        <v>71534.399999999994</v>
+        <v>74096.7</v>
       </c>
       <c r="M13" s="7">
         <v>500000</v>
@@ -9835,19 +9812,19 @@
         <v>550000</v>
       </c>
       <c r="H14" s="4">
-        <v>11.972</v>
+        <v>11.896000000000001</v>
       </c>
       <c r="I14" s="8">
-        <v>45940.800000000003</v>
+        <v>46234.2</v>
       </c>
       <c r="J14" s="7">
         <v>550000</v>
       </c>
       <c r="K14" s="4">
-        <v>7.73</v>
+        <v>7.4770000000000003</v>
       </c>
       <c r="L14" s="8">
-        <v>71155.3</v>
+        <v>73557.600000000006</v>
       </c>
       <c r="M14" s="7">
         <v>550000</v>
@@ -9882,19 +9859,19 @@
         <v>600000</v>
       </c>
       <c r="H15" s="4">
-        <v>13.138</v>
+        <v>13.066000000000001</v>
       </c>
       <c r="I15" s="8">
-        <v>45667.5</v>
+        <v>45921.7</v>
       </c>
       <c r="J15" s="7">
         <v>600000</v>
       </c>
       <c r="K15" s="4">
-        <v>8.4719999999999995</v>
+        <v>8.2219999999999995</v>
       </c>
       <c r="L15" s="8">
-        <v>70820.399999999994</v>
+        <v>72977.8</v>
       </c>
       <c r="M15" s="7">
         <v>600000</v>
@@ -9929,19 +9906,19 @@
         <v>650000</v>
       </c>
       <c r="H16" s="4">
-        <v>14.295</v>
+        <v>14.227</v>
       </c>
       <c r="I16" s="8">
-        <v>45469.2</v>
+        <v>45688.9</v>
       </c>
       <c r="J16" s="7">
         <v>650000</v>
       </c>
       <c r="K16" s="4">
-        <v>9.2219999999999995</v>
+        <v>8.9540000000000006</v>
       </c>
       <c r="L16" s="8">
-        <v>70483.199999999997</v>
+        <v>72591.8</v>
       </c>
       <c r="M16" s="7">
         <v>650000</v>
@@ -9976,19 +9953,19 @@
         <v>700000</v>
       </c>
       <c r="H17" s="4">
-        <v>15.444000000000001</v>
+        <v>15.36</v>
       </c>
       <c r="I17" s="8">
-        <v>45324.7</v>
+        <v>45572.7</v>
       </c>
       <c r="J17" s="7">
         <v>700000</v>
       </c>
       <c r="K17" s="4">
-        <v>9.9659999999999993</v>
+        <v>9.6630000000000003</v>
       </c>
       <c r="L17" s="8">
-        <v>70241.2</v>
+        <v>72437.899999999994</v>
       </c>
       <c r="M17" s="7">
         <v>700000</v>
@@ -10023,19 +10000,19 @@
         <v>750000</v>
       </c>
       <c r="H18" s="4">
-        <v>16.600999999999999</v>
+        <v>16.481000000000002</v>
       </c>
       <c r="I18" s="8">
-        <v>45178.3</v>
+        <v>45508</v>
       </c>
       <c r="J18" s="7">
         <v>750000</v>
       </c>
       <c r="K18" s="4">
-        <v>10.712999999999999</v>
+        <v>10.381</v>
       </c>
       <c r="L18" s="8">
-        <v>70010.5</v>
+        <v>72246.100000000006</v>
       </c>
       <c r="M18" s="7">
         <v>750000</v>
@@ -10070,19 +10047,19 @@
         <v>800000</v>
       </c>
       <c r="H19" s="4">
-        <v>17.773</v>
+        <v>17.664000000000001</v>
       </c>
       <c r="I19" s="8">
-        <v>45012.2</v>
+        <v>45289.2</v>
       </c>
       <c r="J19" s="7">
         <v>800000</v>
       </c>
       <c r="K19" s="4">
-        <v>11.476000000000001</v>
+        <v>11.134</v>
       </c>
       <c r="L19" s="8">
-        <v>69710.600000000006</v>
+        <v>71849</v>
       </c>
       <c r="M19" s="7">
         <v>800000</v>
@@ -10117,19 +10094,19 @@
         <v>850000</v>
       </c>
       <c r="H20" s="4">
-        <v>18.948</v>
+        <v>18.853000000000002</v>
       </c>
       <c r="I20" s="8">
-        <v>44858.9</v>
+        <v>45085.8</v>
       </c>
       <c r="J20" s="7">
         <v>850000</v>
       </c>
       <c r="K20" s="4">
-        <v>12.243</v>
+        <v>11.864000000000001</v>
       </c>
       <c r="L20" s="8">
-        <v>69428.7</v>
+        <v>71647</v>
       </c>
       <c r="M20" s="7">
         <v>850000</v>
@@ -10164,19 +10141,19 @@
         <v>900000</v>
       </c>
       <c r="H21" s="4">
-        <v>20.123000000000001</v>
+        <v>20.039000000000001</v>
       </c>
       <c r="I21" s="8">
-        <v>44724.3</v>
+        <v>44912.3</v>
       </c>
       <c r="J21" s="7">
         <v>900000</v>
       </c>
       <c r="K21" s="4">
-        <v>13.007</v>
+        <v>12.619</v>
       </c>
       <c r="L21" s="8">
-        <v>69191.600000000006</v>
+        <v>71320.100000000006</v>
       </c>
       <c r="M21" s="7">
         <v>900000</v>
@@ -10211,19 +10188,19 @@
         <v>950000</v>
       </c>
       <c r="H22" s="4">
-        <v>21.302</v>
+        <v>21.233000000000001</v>
       </c>
       <c r="I22" s="8">
-        <v>44596.6</v>
+        <v>44740.800000000003</v>
       </c>
       <c r="J22" s="7">
         <v>950000</v>
       </c>
       <c r="K22" s="4">
-        <v>13.778</v>
+        <v>13.378</v>
       </c>
       <c r="L22" s="8">
-        <v>68951.8</v>
+        <v>71014.399999999994</v>
       </c>
       <c r="M22" s="7">
         <v>950000</v>
@@ -10258,19 +10235,19 @@
         <v>1000000</v>
       </c>
       <c r="H23" s="12">
-        <v>22.498999999999999</v>
+        <v>22.431000000000001</v>
       </c>
       <c r="I23" s="10">
-        <v>44447.3</v>
+        <v>44580.800000000003</v>
       </c>
       <c r="J23" s="9">
         <v>1000000</v>
       </c>
       <c r="K23" s="12">
-        <v>14.561999999999999</v>
+        <v>14.148999999999999</v>
       </c>
       <c r="L23" s="10">
-        <v>68671.199999999997</v>
+        <v>70675.600000000006</v>
       </c>
       <c r="M23" s="9">
         <v>1000000</v>
@@ -10308,9 +10285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88507E8A-74B3-4895-A59D-0DC583BCC633}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
